--- a/biology/Botanique/Qualea_coerulea/Qualea_coerulea.xlsx
+++ b/biology/Botanique/Qualea_coerulea/Qualea_coerulea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Qualea coerulea est un arbre de la famille des Vochysiaceae présent en Amérique du Sud.
 </t>
@@ -511,9 +523,11 @@
           <t>Histoire naturelle</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 1775, le botaniste Aublet propose la diagnose suivante[2] : 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1775, le botaniste Aublet propose la diagnose suivante : 
 « QUALEA (coerulea) floribus parvis.  (Tabula 2.)
 Arbor trunco ſexaginta &amp; octoginta-pedali, in ſummitate ramos plures, nodoſos, undique ſparſos emittente ; ramulis &amp; ramuſculis oppoſitis, aut ſuboppoſitis. Folia oppoſita, quando- que ſuboppoſita, acuta, obtuſa, glabra, integerrima, ſubviridia, nervo longitudinali ſubtùs prominente, &amp; nervulis parallelis ſimplicibus, latéralibus inſignita, petiolata. Stipule binæ, lateralæ, ad baſim petiolorum, deciduæ. Flores paniculati, terminates. Perianthium intus villoſum, cinereum. Petala duo oppoſita ; ſuperiùs erectum, ſubrotundum, emarginatum, extus cinereum, intus ſubcæasruleum, profunde emarginatum, violaceum, versus unguem luteum, nigris maculis notatum.
 Flores expanſi gratum odorem latè ſpargunt Florebat Octobri, Habitat in ſylvis Sinemarienſibus, nomen Caribæum QUALÉ. »
